--- a/7/2/3/2/Depósitos 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/3/2/Depósitos 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>Serie</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA74"/>
+  <dimension ref="A1:AA75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6732,22 +6735,22 @@
         <v>-980</v>
       </c>
       <c r="J74">
-        <v>-553</v>
+        <v>-570</v>
       </c>
       <c r="K74">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="L74">
-        <v>-1024</v>
+        <v>-1044</v>
       </c>
       <c r="M74">
-        <v>-154</v>
+        <v>-152</v>
       </c>
       <c r="N74">
-        <v>733</v>
+        <v>650</v>
       </c>
       <c r="O74">
-        <v>-20</v>
+        <v>80</v>
       </c>
       <c r="P74">
         <v>58</v>
@@ -6759,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="S74">
-        <v>-840</v>
+        <v>-1410</v>
       </c>
       <c r="T74">
         <v>-473</v>
@@ -6768,22 +6771,105 @@
         <v>-1103</v>
       </c>
       <c r="V74">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>-158</v>
       </c>
       <c r="X74">
-        <v>-24</v>
+        <v>-4</v>
       </c>
       <c r="Y74">
         <v>-56</v>
       </c>
       <c r="Z74">
-        <v>775</v>
+        <v>363</v>
       </c>
       <c r="AA74">
-        <v>43</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75">
+        <v>-93</v>
+      </c>
+      <c r="C75">
+        <v>-93</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>-1</v>
+      </c>
+      <c r="F75">
+        <v>9016</v>
+      </c>
+      <c r="G75">
+        <v>-78</v>
+      </c>
+      <c r="H75">
+        <v>267</v>
+      </c>
+      <c r="I75">
+        <v>-417</v>
+      </c>
+      <c r="J75">
+        <v>851</v>
+      </c>
+      <c r="K75">
+        <v>-91</v>
+      </c>
+      <c r="L75">
+        <v>-443</v>
+      </c>
+      <c r="M75">
+        <v>727</v>
+      </c>
+      <c r="N75">
+        <v>-652</v>
+      </c>
+      <c r="O75">
+        <v>8865</v>
+      </c>
+      <c r="P75">
+        <v>-12</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>3882</v>
+      </c>
+      <c r="T75">
+        <v>1533</v>
+      </c>
+      <c r="U75">
+        <v>1300</v>
+      </c>
+      <c r="V75">
+        <v>15</v>
+      </c>
+      <c r="W75">
+        <v>-2</v>
+      </c>
+      <c r="X75">
+        <v>77</v>
+      </c>
+      <c r="Y75">
+        <v>85</v>
+      </c>
+      <c r="Z75">
+        <v>815</v>
+      </c>
+      <c r="AA75">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
